--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2607.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2607.xlsx
@@ -354,7 +354,7 @@
         <v>1.56933803814456</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.806432165174223</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2607.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2607.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.794871479566493</v>
+        <v>1.358081459999084</v>
       </c>
       <c r="B1">
-        <v>1.56933803814456</v>
+        <v>2.165539264678955</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.904549121856689</v>
       </c>
       <c r="D1">
-        <v>1.806432165174223</v>
+        <v>3.305068254470825</v>
       </c>
       <c r="E1">
-        <v>0.9197408082697691</v>
+        <v>1.270143985748291</v>
       </c>
     </row>
   </sheetData>
